--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/advanced-vital-signs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/advanced-vital-signs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2672,17 +2672,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2691,28 +2691,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="735">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1875,9 +1875,6 @@
     <t>Observation.component:pulseWaveAnalysis.value[x]:valueQuantity.code</t>
   </si>
   <si>
-    <t>{index}</t>
-  </si>
-  <si>
     <t>Observation.component:pulseWaveAnalysis.dataAbsentReason</t>
   </si>
   <si>
@@ -2350,9 +2347,6 @@
   </si>
   <si>
     <t>Observation.component:allostaticLoad.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>{score}</t>
   </si>
   <si>
     <t>Observation.component:allostaticLoad.dataAbsentReason</t>
@@ -4341,7 +4335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -4585,7 +4579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -4707,7 +4701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>221</v>
       </c>
@@ -5191,7 +5185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>261</v>
       </c>
@@ -5921,7 +5915,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>313</v>
       </c>
@@ -6163,7 +6157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>331</v>
       </c>
@@ -6405,7 +6399,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>349</v>
       </c>
@@ -9055,7 +9049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>460</v>
       </c>
@@ -11115,7 +11109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>529</v>
       </c>
@@ -13175,7 +13169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>550</v>
       </c>
@@ -15235,7 +15229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>571</v>
       </c>
@@ -16857,7 +16851,7 @@
         <v>87</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>588</v>
+        <v>98</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>87</v>
@@ -16931,7 +16925,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>452</v>
@@ -17053,7 +17047,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>456</v>
@@ -17175,7 +17169,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>457</v>
@@ -17295,15 +17289,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>87</v>
@@ -17328,7 +17322,7 @@
         <v>359</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>463</v>
@@ -17421,7 +17415,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>440</v>
@@ -17539,7 +17533,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>441</v>
@@ -17659,7 +17653,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>442</v>
@@ -17781,7 +17775,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>443</v>
@@ -17829,7 +17823,7 @@
         <v>87</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>87</v>
@@ -17903,7 +17897,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>448</v>
@@ -18023,7 +18017,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>448</v>
@@ -18147,7 +18141,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>474</v>
@@ -18265,7 +18259,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>476</v>
@@ -18385,7 +18379,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>480</v>
@@ -18507,7 +18501,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>490</v>
@@ -18629,7 +18623,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>501</v>
@@ -18749,7 +18743,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>509</v>
@@ -18869,7 +18863,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>518</v>
@@ -18917,7 +18911,7 @@
         <v>87</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>87</v>
@@ -18991,7 +18985,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>452</v>
@@ -19113,7 +19107,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>456</v>
@@ -19235,7 +19229,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>457</v>
@@ -19355,15 +19349,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>87</v>
@@ -19388,7 +19382,7 @@
         <v>359</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>463</v>
@@ -19481,7 +19475,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>440</v>
@@ -19599,7 +19593,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>441</v>
@@ -19719,7 +19713,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>442</v>
@@ -19841,7 +19835,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>443</v>
@@ -19889,7 +19883,7 @@
         <v>87</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>87</v>
@@ -19963,7 +19957,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>448</v>
@@ -20083,7 +20077,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>448</v>
@@ -20207,7 +20201,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>474</v>
@@ -20325,7 +20319,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>476</v>
@@ -20445,7 +20439,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>480</v>
@@ -20567,7 +20561,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>490</v>
@@ -20689,7 +20683,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>501</v>
@@ -20809,7 +20803,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>509</v>
@@ -20929,7 +20923,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>518</v>
@@ -20977,7 +20971,7 @@
         <v>87</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>87</v>
@@ -21051,7 +21045,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>452</v>
@@ -21173,7 +21167,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>456</v>
@@ -21295,7 +21289,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>457</v>
@@ -21415,15 +21409,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>87</v>
@@ -21448,7 +21442,7 @@
         <v>359</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>463</v>
@@ -21541,7 +21535,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>440</v>
@@ -21659,7 +21653,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>441</v>
@@ -21779,7 +21773,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>442</v>
@@ -21901,7 +21895,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>443</v>
@@ -21949,7 +21943,7 @@
         <v>87</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>87</v>
@@ -22023,7 +22017,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>448</v>
@@ -22143,7 +22137,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>448</v>
@@ -22267,7 +22261,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>474</v>
@@ -22385,7 +22379,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>476</v>
@@ -22505,7 +22499,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>480</v>
@@ -22627,7 +22621,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>490</v>
@@ -22749,7 +22743,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>501</v>
@@ -22869,7 +22863,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>509</v>
@@ -22989,7 +22983,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>518</v>
@@ -23037,7 +23031,7 @@
         <v>87</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>588</v>
+        <v>98</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>87</v>
@@ -23111,7 +23105,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>452</v>
@@ -23233,7 +23227,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>456</v>
@@ -23355,7 +23349,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>457</v>
@@ -23475,15 +23469,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>87</v>
@@ -23508,7 +23502,7 @@
         <v>359</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>463</v>
@@ -23601,7 +23595,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>440</v>
@@ -23719,7 +23713,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>441</v>
@@ -23839,7 +23833,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>442</v>
@@ -23961,7 +23955,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>443</v>
@@ -24009,7 +24003,7 @@
         <v>87</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>87</v>
@@ -24083,7 +24077,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>448</v>
@@ -24203,7 +24197,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>448</v>
@@ -24327,7 +24321,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>474</v>
@@ -24445,7 +24439,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>476</v>
@@ -24565,7 +24559,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>480</v>
@@ -24687,7 +24681,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>490</v>
@@ -24809,7 +24803,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>501</v>
@@ -24929,7 +24923,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>509</v>
@@ -25049,7 +25043,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>518</v>
@@ -25097,7 +25091,7 @@
         <v>87</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>87</v>
@@ -25171,7 +25165,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>452</v>
@@ -25293,7 +25287,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>456</v>
@@ -25415,7 +25409,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>457</v>
@@ -25535,15 +25529,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>87</v>
@@ -25568,7 +25562,7 @@
         <v>359</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>463</v>
@@ -25661,7 +25655,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>440</v>
@@ -25779,7 +25773,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>441</v>
@@ -25899,7 +25893,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>442</v>
@@ -26021,7 +26015,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>443</v>
@@ -26069,7 +26063,7 @@
         <v>87</v>
       </c>
       <c r="S193" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T193" t="s" s="2">
         <v>87</v>
@@ -26143,7 +26137,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>448</v>
@@ -26263,7 +26257,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>448</v>
@@ -26387,7 +26381,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>474</v>
@@ -26505,7 +26499,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>476</v>
@@ -26625,7 +26619,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>480</v>
@@ -26747,7 +26741,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>490</v>
@@ -26869,7 +26863,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>501</v>
@@ -26989,7 +26983,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>509</v>
@@ -27109,7 +27103,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>518</v>
@@ -27157,7 +27151,7 @@
         <v>87</v>
       </c>
       <c r="S202" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T202" t="s" s="2">
         <v>87</v>
@@ -27231,7 +27225,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>452</v>
@@ -27353,7 +27347,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>456</v>
@@ -27475,7 +27469,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>457</v>
@@ -27595,15 +27589,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>87</v>
@@ -27628,7 +27622,7 @@
         <v>359</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>463</v>
@@ -27721,7 +27715,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>440</v>
@@ -27839,7 +27833,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>441</v>
@@ -27959,7 +27953,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>442</v>
@@ -28081,7 +28075,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>443</v>
@@ -28129,7 +28123,7 @@
         <v>87</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>87</v>
@@ -28203,7 +28197,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>448</v>
@@ -28323,7 +28317,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>448</v>
@@ -28447,7 +28441,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>474</v>
@@ -28565,7 +28559,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>476</v>
@@ -28685,7 +28679,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>480</v>
@@ -28807,7 +28801,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>490</v>
@@ -28929,7 +28923,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>501</v>
@@ -29049,7 +29043,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>509</v>
@@ -29169,7 +29163,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>518</v>
@@ -29217,7 +29211,7 @@
         <v>87</v>
       </c>
       <c r="S219" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T219" t="s" s="2">
         <v>87</v>
@@ -29291,7 +29285,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>452</v>
@@ -29413,7 +29407,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>456</v>
@@ -29535,7 +29529,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>457</v>
@@ -29655,15 +29649,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>87</v>
@@ -29688,7 +29682,7 @@
         <v>359</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>463</v>
@@ -29781,7 +29775,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>440</v>
@@ -29899,7 +29893,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>441</v>
@@ -30019,7 +30013,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>442</v>
@@ -30141,7 +30135,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>443</v>
@@ -30189,7 +30183,7 @@
         <v>87</v>
       </c>
       <c r="S227" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>87</v>
@@ -30263,7 +30257,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>448</v>
@@ -30383,7 +30377,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>448</v>
@@ -30507,7 +30501,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>474</v>
@@ -30625,7 +30619,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>476</v>
@@ -30745,7 +30739,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>480</v>
@@ -30867,7 +30861,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>490</v>
@@ -30989,7 +30983,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>501</v>
@@ -31109,7 +31103,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>509</v>
@@ -31229,7 +31223,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>518</v>
@@ -31277,7 +31271,7 @@
         <v>87</v>
       </c>
       <c r="S236" t="s" s="2">
-        <v>733</v>
+        <v>98</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>87</v>
@@ -31351,7 +31345,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>452</v>
@@ -31473,7 +31467,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>456</v>
@@ -31595,7 +31589,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>457</v>
@@ -31717,12 +31711,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP239">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1806,7 +1806,7 @@
     <t>Observation.component:meanArterialPressure.value[x]:valueQuantity.code</t>
   </si>
   <si>
-    <t>mmHg</t>
+    <t>mm[Hg]</t>
   </si>
   <si>
     <t>Observation.component:meanArterialPressure.dataAbsentReason</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="734">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2008,9 +2008,6 @@
   </si>
   <si>
     <t>Observation.component:oxygenationIndex.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>{ratio}</t>
   </si>
   <si>
     <t>Observation.component:oxygenationIndex.dataAbsentReason</t>
@@ -20971,7 +20968,7 @@
         <v>87</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>629</v>
+        <v>98</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>87</v>
@@ -21045,7 +21042,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>452</v>
@@ -21167,7 +21164,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>456</v>
@@ -21289,7 +21286,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>457</v>
@@ -21411,13 +21408,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>87</v>
@@ -21442,7 +21439,7 @@
         <v>359</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>463</v>
@@ -21535,7 +21532,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>440</v>
@@ -21653,7 +21650,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>441</v>
@@ -21773,7 +21770,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>442</v>
@@ -21895,7 +21892,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>443</v>
@@ -21943,7 +21940,7 @@
         <v>87</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>87</v>
@@ -22017,7 +22014,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>448</v>
@@ -22137,7 +22134,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>448</v>
@@ -22261,7 +22258,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>474</v>
@@ -22379,7 +22376,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>476</v>
@@ -22499,7 +22496,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>480</v>
@@ -22621,7 +22618,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>490</v>
@@ -22743,7 +22740,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>501</v>
@@ -22863,7 +22860,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>509</v>
@@ -22983,7 +22980,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>518</v>
@@ -23105,7 +23102,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>452</v>
@@ -23227,7 +23224,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>456</v>
@@ -23349,7 +23346,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>457</v>
@@ -23471,13 +23468,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>87</v>
@@ -23502,7 +23499,7 @@
         <v>359</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>463</v>
@@ -23595,7 +23592,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>440</v>
@@ -23713,7 +23710,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>441</v>
@@ -23833,7 +23830,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>442</v>
@@ -23955,7 +23952,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>443</v>
@@ -24003,7 +24000,7 @@
         <v>87</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>87</v>
@@ -24077,7 +24074,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>448</v>
@@ -24197,7 +24194,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>448</v>
@@ -24321,7 +24318,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>474</v>
@@ -24439,7 +24436,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>476</v>
@@ -24559,7 +24556,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>480</v>
@@ -24681,7 +24678,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>490</v>
@@ -24803,7 +24800,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>501</v>
@@ -24923,7 +24920,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>509</v>
@@ -25043,7 +25040,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>518</v>
@@ -25091,7 +25088,7 @@
         <v>87</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>87</v>
@@ -25165,7 +25162,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>452</v>
@@ -25287,7 +25284,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>456</v>
@@ -25409,7 +25406,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>457</v>
@@ -25531,13 +25528,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>87</v>
@@ -25562,7 +25559,7 @@
         <v>359</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>463</v>
@@ -25655,7 +25652,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>440</v>
@@ -25773,7 +25770,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>441</v>
@@ -25893,7 +25890,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>442</v>
@@ -26015,7 +26012,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>443</v>
@@ -26063,7 +26060,7 @@
         <v>87</v>
       </c>
       <c r="S193" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T193" t="s" s="2">
         <v>87</v>
@@ -26137,7 +26134,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>448</v>
@@ -26257,7 +26254,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>448</v>
@@ -26381,7 +26378,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>474</v>
@@ -26499,7 +26496,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>476</v>
@@ -26619,7 +26616,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>480</v>
@@ -26741,7 +26738,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>490</v>
@@ -26863,7 +26860,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>501</v>
@@ -26983,7 +26980,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>509</v>
@@ -27103,7 +27100,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>518</v>
@@ -27151,7 +27148,7 @@
         <v>87</v>
       </c>
       <c r="S202" t="s" s="2">
-        <v>629</v>
+        <v>98</v>
       </c>
       <c r="T202" t="s" s="2">
         <v>87</v>
@@ -27225,7 +27222,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>452</v>
@@ -27347,7 +27344,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>456</v>
@@ -27469,7 +27466,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>457</v>
@@ -27591,13 +27588,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>87</v>
@@ -27622,7 +27619,7 @@
         <v>359</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>463</v>
@@ -27715,7 +27712,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>440</v>
@@ -27833,7 +27830,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>441</v>
@@ -27953,7 +27950,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>442</v>
@@ -28075,7 +28072,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>443</v>
@@ -28123,7 +28120,7 @@
         <v>87</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>87</v>
@@ -28197,7 +28194,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>448</v>
@@ -28317,7 +28314,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>448</v>
@@ -28441,7 +28438,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>474</v>
@@ -28559,7 +28556,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>476</v>
@@ -28679,7 +28676,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>480</v>
@@ -28801,7 +28798,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>490</v>
@@ -28923,7 +28920,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>501</v>
@@ -29043,7 +29040,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>509</v>
@@ -29163,7 +29160,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>518</v>
@@ -29211,7 +29208,7 @@
         <v>87</v>
       </c>
       <c r="S219" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T219" t="s" s="2">
         <v>87</v>
@@ -29285,7 +29282,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>452</v>
@@ -29407,7 +29404,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>456</v>
@@ -29529,7 +29526,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>457</v>
@@ -29651,13 +29648,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>87</v>
@@ -29682,7 +29679,7 @@
         <v>359</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>463</v>
@@ -29775,7 +29772,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>440</v>
@@ -29893,7 +29890,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>441</v>
@@ -30013,7 +30010,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>442</v>
@@ -30135,7 +30132,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>443</v>
@@ -30183,7 +30180,7 @@
         <v>87</v>
       </c>
       <c r="S227" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T227" t="s" s="2">
         <v>87</v>
@@ -30257,7 +30254,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>448</v>
@@ -30377,7 +30374,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>448</v>
@@ -30501,7 +30498,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>474</v>
@@ -30619,7 +30616,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>476</v>
@@ -30739,7 +30736,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>480</v>
@@ -30861,7 +30858,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>490</v>
@@ -30983,7 +30980,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>501</v>
@@ -31103,7 +31100,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>509</v>
@@ -31223,7 +31220,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>518</v>
@@ -31345,7 +31342,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>452</v>
@@ -31467,7 +31464,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>456</v>
@@ -31589,7 +31586,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>457</v>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-advanced-vital-signs.xlsx
+++ b/output/StructureDefinition-advanced-vital-signs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
